--- a/sofiback/public/pcerdo.xlsx
+++ b/sofiback/public/pcerdo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>P E D I D O S    DE   C E R D O S</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t>TOTAL CERDOS</t>
   </si>
+  <si>
+    <t>CNTDO</t>
+  </si>
 </sst>
 </file>
 
@@ -781,6 +784,10 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,10 +797,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="U4" sqref="U4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1148,24 +1151,25 @@
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" customWidth="1"/>
     <col min="11" max="18" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1175,7 +1179,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1203,7 @@
       <c r="R3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
@@ -1225,41 +1229,44 @@
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="62">
         <v>1</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="62">
         <v>2</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="62">
         <v>3</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="62">
         <v>4</v>
       </c>
-      <c r="O4" s="60">
+      <c r="O4" s="62">
         <v>5</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="62">
         <v>6</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="62">
         <v>7</v>
       </c>
-      <c r="R4" s="60">
+      <c r="R4" s="62">
         <v>8</v>
       </c>
-      <c r="S4" s="60">
+      <c r="S4" s="62">
         <v>9</v>
       </c>
-      <c r="T4" s="60">
+      <c r="T4" s="62">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="65"/>
       <c r="C5" s="74"/>
@@ -1273,19 +1280,20 @@
       <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="60"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="60"/>
+    </row>
+    <row r="6" spans="1:21" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -1311,8 +1319,9 @@
       <c r="R6" s="32"/>
       <c r="S6" s="43"/>
       <c r="T6" s="33"/>
-    </row>
-    <row r="7" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>+A6+1</f>
         <v>2</v>
@@ -1339,8 +1348,9 @@
       <c r="R7" s="35"/>
       <c r="S7" s="44"/>
       <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <f t="shared" ref="A8:A30" si="1">+A7+1</f>
         <v>3</v>
@@ -1367,8 +1377,9 @@
       <c r="R8" s="38"/>
       <c r="S8" s="45"/>
       <c r="T8" s="39"/>
-    </row>
-    <row r="9" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1395,8 +1406,9 @@
       <c r="R9" s="35"/>
       <c r="S9" s="44"/>
       <c r="T9" s="36"/>
-    </row>
-    <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1423,8 +1435,9 @@
       <c r="R10" s="38"/>
       <c r="S10" s="45"/>
       <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1451,8 +1464,9 @@
       <c r="R11" s="35"/>
       <c r="S11" s="44"/>
       <c r="T11" s="36"/>
-    </row>
-    <row r="12" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1479,8 +1493,9 @@
       <c r="R12" s="38"/>
       <c r="S12" s="45"/>
       <c r="T12" s="39"/>
-    </row>
-    <row r="13" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1507,8 +1522,9 @@
       <c r="R13" s="35"/>
       <c r="S13" s="44"/>
       <c r="T13" s="36"/>
-    </row>
-    <row r="14" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1535,8 +1551,9 @@
       <c r="R14" s="38"/>
       <c r="S14" s="45"/>
       <c r="T14" s="39"/>
-    </row>
-    <row r="15" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1563,8 +1580,9 @@
       <c r="R15" s="35"/>
       <c r="S15" s="44"/>
       <c r="T15" s="36"/>
-    </row>
-    <row r="16" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1591,8 +1609,9 @@
       <c r="R16" s="38"/>
       <c r="S16" s="45"/>
       <c r="T16" s="39"/>
-    </row>
-    <row r="17" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1619,8 +1638,9 @@
       <c r="R17" s="35"/>
       <c r="S17" s="44"/>
       <c r="T17" s="36"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1647,8 +1667,9 @@
       <c r="R18" s="38"/>
       <c r="S18" s="45"/>
       <c r="T18" s="39"/>
-    </row>
-    <row r="19" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1675,8 +1696,9 @@
       <c r="R19" s="35"/>
       <c r="S19" s="44"/>
       <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1703,8 +1725,9 @@
       <c r="R20" s="38"/>
       <c r="S20" s="45"/>
       <c r="T20" s="39"/>
-    </row>
-    <row r="21" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1731,8 +1754,9 @@
       <c r="R21" s="35"/>
       <c r="S21" s="44"/>
       <c r="T21" s="36"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1759,8 +1783,9 @@
       <c r="R22" s="38"/>
       <c r="S22" s="45"/>
       <c r="T22" s="39"/>
-    </row>
-    <row r="23" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1787,8 +1812,9 @@
       <c r="R23" s="35"/>
       <c r="S23" s="44"/>
       <c r="T23" s="36"/>
-    </row>
-    <row r="24" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <f t="shared" ref="A24:A27" si="2">+A23+1</f>
         <v>19</v>
@@ -1815,8 +1841,9 @@
       <c r="R24" s="35"/>
       <c r="S24" s="44"/>
       <c r="T24" s="36"/>
-    </row>
-    <row r="25" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1843,8 +1870,9 @@
       <c r="R25" s="35"/>
       <c r="S25" s="44"/>
       <c r="T25" s="36"/>
-    </row>
-    <row r="26" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1871,8 +1899,9 @@
       <c r="R26" s="35"/>
       <c r="S26" s="44"/>
       <c r="T26" s="36"/>
-    </row>
-    <row r="27" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1899,8 +1928,9 @@
       <c r="R27" s="35"/>
       <c r="S27" s="44"/>
       <c r="T27" s="36"/>
-    </row>
-    <row r="28" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1927,8 +1957,9 @@
       <c r="R28" s="35"/>
       <c r="S28" s="44"/>
       <c r="T28" s="36"/>
-    </row>
-    <row r="29" spans="1:20" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1958,8 +1989,9 @@
       <c r="R29" s="35"/>
       <c r="S29" s="44"/>
       <c r="T29" s="36"/>
-    </row>
-    <row r="30" spans="1:20" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="1:21" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1989,15 +2021,16 @@
       <c r="R30" s="41"/>
       <c r="S30" s="46"/>
       <c r="T30" s="42"/>
-    </row>
-    <row r="31" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="58"/>
+    </row>
+    <row r="31" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -2081,12 +2114,13 @@
     <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>

--- a/sofiback/public/pcerdo.xlsx
+++ b/sofiback/public/pcerdo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>P E D I D O S    DE   C E R D O S</t>
   </si>
@@ -65,6 +65,9 @@
   <si>
     <t>CNTDO</t>
   </si>
+  <si>
+    <t>FACT</t>
+  </si>
 </sst>
 </file>
 
@@ -784,6 +787,21 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,10 +815,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,17 +827,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,22 +1157,23 @@
     <col min="19" max="19" width="15.5703125" style="9" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
+    <col min="22" max="22" width="7" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1179,16 +1183,16 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="49" t="s">
         <v>2</v>
       </c>
@@ -1203,97 +1207,101 @@
       <c r="R3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="73" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="69">
         <v>1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="69">
         <v>2</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="69">
         <v>3</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="69">
         <v>4</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="69">
         <v>5</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="69">
         <v>6</v>
       </c>
-      <c r="Q4" s="62">
+      <c r="Q4" s="69">
         <v>7</v>
       </c>
-      <c r="R4" s="62">
+      <c r="R4" s="69">
         <v>8</v>
       </c>
-      <c r="S4" s="62">
+      <c r="S4" s="69">
         <v>9</v>
       </c>
-      <c r="T4" s="62">
+      <c r="T4" s="69">
         <v>10</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="69"/>
+      <c r="V4" s="66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="60"/>
-    </row>
-    <row r="6" spans="1:21" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="67"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+    </row>
+    <row r="6" spans="1:22" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -1320,8 +1328,9 @@
       <c r="S6" s="43"/>
       <c r="T6" s="33"/>
       <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>+A6+1</f>
         <v>2</v>
@@ -1349,8 +1358,9 @@
       <c r="S7" s="44"/>
       <c r="T7" s="36"/>
       <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="26"/>
+    </row>
+    <row r="8" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <f t="shared" ref="A8:A30" si="1">+A7+1</f>
         <v>3</v>
@@ -1378,8 +1388,9 @@
       <c r="S8" s="45"/>
       <c r="T8" s="39"/>
       <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1407,8 +1418,9 @@
       <c r="S9" s="44"/>
       <c r="T9" s="36"/>
       <c r="U9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="26"/>
+    </row>
+    <row r="10" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1436,8 +1448,9 @@
       <c r="S10" s="45"/>
       <c r="T10" s="39"/>
       <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1465,8 +1478,9 @@
       <c r="S11" s="44"/>
       <c r="T11" s="36"/>
       <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1494,8 +1508,9 @@
       <c r="S12" s="45"/>
       <c r="T12" s="39"/>
       <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1523,8 +1538,9 @@
       <c r="S13" s="44"/>
       <c r="T13" s="36"/>
       <c r="U13" s="26"/>
-    </row>
-    <row r="14" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1552,8 +1568,9 @@
       <c r="S14" s="45"/>
       <c r="T14" s="39"/>
       <c r="U14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1581,8 +1598,9 @@
       <c r="S15" s="44"/>
       <c r="T15" s="36"/>
       <c r="U15" s="26"/>
-    </row>
-    <row r="16" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1610,8 +1628,9 @@
       <c r="S16" s="45"/>
       <c r="T16" s="39"/>
       <c r="U16" s="19"/>
-    </row>
-    <row r="17" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1639,8 +1658,9 @@
       <c r="S17" s="44"/>
       <c r="T17" s="36"/>
       <c r="U17" s="26"/>
-    </row>
-    <row r="18" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1668,8 +1688,9 @@
       <c r="S18" s="45"/>
       <c r="T18" s="39"/>
       <c r="U18" s="19"/>
-    </row>
-    <row r="19" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1697,8 +1718,9 @@
       <c r="S19" s="44"/>
       <c r="T19" s="36"/>
       <c r="U19" s="26"/>
-    </row>
-    <row r="20" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="26"/>
+    </row>
+    <row r="20" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1726,8 +1748,9 @@
       <c r="S20" s="45"/>
       <c r="T20" s="39"/>
       <c r="U20" s="19"/>
-    </row>
-    <row r="21" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1755,8 +1778,9 @@
       <c r="S21" s="44"/>
       <c r="T21" s="36"/>
       <c r="U21" s="26"/>
-    </row>
-    <row r="22" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="26"/>
+    </row>
+    <row r="22" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1784,8 +1808,9 @@
       <c r="S22" s="45"/>
       <c r="T22" s="39"/>
       <c r="U22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1813,8 +1838,9 @@
       <c r="S23" s="44"/>
       <c r="T23" s="36"/>
       <c r="U23" s="26"/>
-    </row>
-    <row r="24" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <f t="shared" ref="A24:A27" si="2">+A23+1</f>
         <v>19</v>
@@ -1842,8 +1868,9 @@
       <c r="S24" s="44"/>
       <c r="T24" s="36"/>
       <c r="U24" s="19"/>
-    </row>
-    <row r="25" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1871,8 +1898,9 @@
       <c r="S25" s="44"/>
       <c r="T25" s="36"/>
       <c r="U25" s="26"/>
-    </row>
-    <row r="26" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="26"/>
+    </row>
+    <row r="26" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1900,8 +1928,9 @@
       <c r="S26" s="44"/>
       <c r="T26" s="36"/>
       <c r="U26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1929,8 +1958,9 @@
       <c r="S27" s="44"/>
       <c r="T27" s="36"/>
       <c r="U27" s="26"/>
-    </row>
-    <row r="28" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="26"/>
+    </row>
+    <row r="28" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1958,8 +1988,9 @@
       <c r="S28" s="44"/>
       <c r="T28" s="36"/>
       <c r="U28" s="19"/>
-    </row>
-    <row r="29" spans="1:21" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1990,8 +2021,9 @@
       <c r="S29" s="44"/>
       <c r="T29" s="36"/>
       <c r="U29" s="26"/>
-    </row>
-    <row r="30" spans="1:21" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="26"/>
+    </row>
+    <row r="30" spans="1:22" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2022,15 +2054,16 @@
       <c r="S30" s="46"/>
       <c r="T30" s="42"/>
       <c r="U30" s="58"/>
-    </row>
-    <row r="31" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="58"/>
+    </row>
+    <row r="31" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -2114,12 +2147,8 @@
     <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="22">
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="P4:P5"/>
@@ -2136,6 +2165,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>

--- a/sofiback/public/pcerdo.xlsx
+++ b/sofiback/public/pcerdo.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30E7FC-22DE-4286-9A18-8F5439855F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>P E D I D O S    DE   C E R D O S</t>
   </si>
@@ -68,11 +69,17 @@
   <si>
     <t>FACT</t>
   </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>COMENTARIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
@@ -673,12 +680,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="73">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,11 +701,10 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,9 +717,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,13 +732,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,25 +748,25 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,27 +786,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,6 +805,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +821,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,11 +1140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,26 +1159,26 @@
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" customWidth="1"/>
     <col min="11" max="18" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="7" style="9" customWidth="1"/>
+    <col min="21" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1181,901 +1186,948 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="49" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="63" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="60">
         <v>2</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="60">
         <v>3</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="60">
         <v>4</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="60">
         <v>5</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="60">
         <v>6</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="60">
         <v>7</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="60">
         <v>8</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="60">
         <v>9</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="60">
         <v>10</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="4" t="s">
+      <c r="W4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-    </row>
-    <row r="6" spans="1:22" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="J5" s="58"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+    </row>
+    <row r="6" spans="1:24" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13">
         <f>+E6+F6+(IF(G6=(0.5),0.275,0))+H6+(I6/100)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-    </row>
-    <row r="7" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <f>+A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20">
         <f t="shared" ref="D7:D30" si="0">+E7+F7+(IF(G7=(0.5),0.275,0))+H7+(I7/100)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+    </row>
+    <row r="8" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <f t="shared" ref="A8:A30" si="1">+A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-    </row>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+    </row>
+    <row r="10" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-    </row>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-    </row>
-    <row r="14" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-    </row>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+    </row>
+    <row r="16" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-    </row>
-    <row r="18" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+    </row>
+    <row r="18" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-    </row>
-    <row r="20" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+    </row>
+    <row r="20" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-    </row>
-    <row r="22" spans="1:22" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+    </row>
+    <row r="22" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-    </row>
-    <row r="23" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+    </row>
+    <row r="23" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-    </row>
-    <row r="24" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+    </row>
+    <row r="24" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
         <f t="shared" ref="A24:A27" si="2">+A23+1</f>
         <v>19</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13">
         <f t="shared" ref="D24:D27" si="3">+E24+F24+(IF(G24=(0.5),0.275,0))+H24+(I24/100)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-    </row>
-    <row r="25" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+    </row>
+    <row r="25" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-    </row>
-    <row r="26" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+    </row>
+    <row r="26" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-    </row>
-    <row r="27" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+    </row>
+    <row r="27" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-    </row>
-    <row r="28" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+    </row>
+    <row r="28" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-    </row>
-    <row r="29" spans="1:22" s="27" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+    </row>
+    <row r="29" spans="1:24" s="25" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="50">
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="48">
         <f>SUM(D6:D30)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-    </row>
-    <row r="30" spans="1:22" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+    </row>
+    <row r="30" spans="1:24" s="25" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="40">
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="38">
         <f>(K29-INT(K29))</f>
         <v>0</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-    </row>
-    <row r="31" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+    </row>
+    <row r="31" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10">
+      <c r="C32" s="6"/>
+      <c r="D32" s="8">
         <f>IF(K30&gt;0.54,(INT(K29)+1)+(K30-0.55),K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2147,8 +2199,16 @@
     <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="P4:P5"/>
@@ -2164,12 +2224,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
